--- a/dataset/wine.xlsx
+++ b/dataset/wine.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cold_\SynologyDrive_harddisk_yokoyama_ac\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD07C9B-B0BD-45D5-9879-B3C9DBEDB5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ADD5FB-2F26-4362-94B0-23C0473365CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BBF64720-ACFE-417F-9E15-FD8DCBFB470B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{BBF64720-ACFE-417F-9E15-FD8DCBFB470B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetWine" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetVineyard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>label</t>
   </si>
@@ -75,6 +76,27 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>ブルゴーニュ</t>
+  </si>
+  <si>
+    <t>ボルドー</t>
+  </si>
+  <si>
+    <t>ロワール</t>
+  </si>
+  <si>
+    <t>シャンバーニュ</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>チリ</t>
   </si>
 </sst>
 </file>
@@ -440,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA32C6B7-CA49-40F5-94DC-669B5A335887}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -545,4 +567,68 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D879B4-2292-438A-A231-780D352E82F5}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>